--- a/data/trans_orig/P24D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D182E879-FBA5-449B-AE0F-B0C2DF9B78D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2F56D3E-8956-41AF-A5F6-79EA7673E7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AFC458B3-FF1B-4D38-A426-5CAC7B513971}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D7072A2-21F2-49F2-A8FF-C566D05084B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>26,89%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
   </si>
   <si>
     <t>23,17%</t>
@@ -95,10 +95,10 @@
     <t>25,74%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>73,11%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>76,83%</t>
@@ -125,10 +125,10 @@
     <t>74,26%</t>
   </si>
   <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>24,19%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>17,54%</t>
@@ -152,31 +152,31 @@
     <t>11,7%</t>
   </si>
   <si>
-    <t>24,33%</t>
+    <t>24,9%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>75,67%</t>
+    <t>75,1%</t>
   </si>
   <si>
     <t>88,3%</t>
@@ -185,10 +185,10 @@
     <t>78,03%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,55 @@
     <t>31,21%</t>
   </si>
   <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>42,16%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>35,12%</t>
   </si>
   <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
   </si>
   <si>
     <t>68,79%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
   </si>
   <si>
     <t>57,84%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
   </si>
   <si>
     <t>64,88%</t>
   </si>
   <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,55 +254,55 @@
     <t>37,58%</t>
   </si>
   <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>39,1%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
   </si>
   <si>
     <t>38,19%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
   </si>
   <si>
     <t>62,42%</t>
   </si>
   <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>61,81%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,109 +311,103 @@
     <t>29,83%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
+    <t>34,72%</t>
   </si>
   <si>
     <t>35,65%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
   </si>
   <si>
     <t>70,17%</t>
   </si>
   <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>65,28%</t>
   </si>
   <si>
     <t>64,35%</t>
   </si>
   <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -425,10 +419,10 @@
     <t>50,65%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
   </si>
   <si>
     <t>62,68%</t>
@@ -443,19 +437,19 @@
     <t>54,01%</t>
   </si>
   <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
   </si>
   <si>
     <t>49,35%</t>
   </si>
   <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
   </si>
   <si>
     <t>37,32%</t>
@@ -470,858 +464,846 @@
     <t>45,99%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>47,51%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>52,0%</t>
   </si>
   <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
   </si>
   <si>
     <t>52,49%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>48,0%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
   </si>
   <si>
     <t>49,26%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>45,33%</t>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
   </si>
   <si>
     <t>50,23%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
   </si>
   <si>
     <t>50,74%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>48,43%</t>
   </si>
   <si>
-    <t>54,67%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
   </si>
   <si>
     <t>49,77%</t>
   </si>
   <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
   </si>
   <si>
     <t>50,72%</t>
   </si>
   <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
   </si>
   <si>
     <t>48,78%</t>
   </si>
   <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>49,28%</t>
   </si>
   <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
   </si>
   <si>
     <t>51,22%</t>
   </si>
   <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
   </si>
   <si>
     <t>40,94%</t>
   </si>
   <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
   </si>
   <si>
     <t>52,21%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
     <t>34,6%</t>
   </si>
   <si>
@@ -1343,9 +1325,6 @@
     <t>38,52%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
     <t>41,49%</t>
   </si>
   <si>
@@ -1371,9 +1350,6 @@
   </si>
   <si>
     <t>58,51%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECFDAB4-1013-40CE-88D8-6AFDB07AA775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C26B837-5765-4755-AF20-52F3288E1856}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2532,10 +2508,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -2544,13 +2520,13 @@
         <v>108502</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
@@ -2559,13 +2535,13 @@
         <v>229114</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2556,13 @@
         <v>283679</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -2595,13 +2571,13 @@
         <v>195892</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>484</v>
@@ -2610,13 +2586,13 @@
         <v>479571</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2660,13 @@
         <v>420548</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>289</v>
@@ -2699,13 +2675,13 @@
         <v>298010</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>696</v>
@@ -2714,13 +2690,13 @@
         <v>718558</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2711,13 @@
         <v>960280</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>548</v>
@@ -2750,13 +2726,13 @@
         <v>556464</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1486</v>
@@ -2765,13 +2741,13 @@
         <v>1516744</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,7 +2803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2848,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C6F627-3EE1-4E6A-A4E2-D04CE469945C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2124DC-981D-42BB-BA32-F672A58AC71F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2865,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2972,13 +2948,13 @@
         <v>26165</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2987,13 +2963,13 @@
         <v>12547</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -3002,13 +2978,13 @@
         <v>38712</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +2999,13 @@
         <v>25495</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3038,13 +3014,13 @@
         <v>7471</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -3053,13 +3029,13 @@
         <v>32966</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3103,13 @@
         <v>103530</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -3142,13 +3118,13 @@
         <v>83541</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -3157,13 +3133,13 @@
         <v>187070</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3154,13 @@
         <v>114392</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -3193,13 +3169,13 @@
         <v>58282</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>166</v>
@@ -3208,13 +3184,13 @@
         <v>172675</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3258,13 @@
         <v>199759</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -3297,13 +3273,13 @@
         <v>149733</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>315</v>
@@ -3312,13 +3288,13 @@
         <v>349493</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3309,13 @@
         <v>205739</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
@@ -3348,10 +3324,10 @@
         <v>140614</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>175</v>
@@ -3607,13 +3583,13 @@
         <v>134384</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>275</v>
@@ -3622,13 +3598,13 @@
         <v>283545</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3619,13 @@
         <v>215177</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -3658,13 +3634,13 @@
         <v>154005</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
@@ -3673,13 +3649,13 @@
         <v>369182</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3723,13 @@
         <v>626595</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>455</v>
@@ -3762,13 +3738,13 @@
         <v>496158</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1030</v>
@@ -3777,13 +3753,13 @@
         <v>1122752</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3774,13 @@
         <v>725297</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>438</v>
@@ -3813,13 +3789,13 @@
         <v>473036</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>1130</v>
@@ -3828,13 +3804,13 @@
         <v>1198334</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F804A8-EBF5-4F90-8ED9-7AB77CF129A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D4BE43-3C41-453B-949A-7693FF260CDF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3928,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4035,13 +4011,13 @@
         <v>29255</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -4050,13 +4026,13 @@
         <v>17328</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4065,13 +4041,13 @@
         <v>46584</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4062,13 @@
         <v>20646</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4101,13 +4077,13 @@
         <v>14502</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -4116,13 +4092,13 @@
         <v>35147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4166,13 @@
         <v>82202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>50</v>
@@ -4205,13 +4181,13 @@
         <v>49858</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -4220,13 +4196,13 @@
         <v>132060</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4217,13 @@
         <v>118449</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -4256,13 +4232,13 @@
         <v>86721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -4271,13 +4247,13 @@
         <v>205170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4321,13 @@
         <v>159897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -4360,13 +4336,13 @@
         <v>143456</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>281</v>
@@ -4375,13 +4351,13 @@
         <v>303354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4372,13 @@
         <v>174891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -4411,13 +4387,13 @@
         <v>127472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>283</v>
@@ -4426,13 +4402,13 @@
         <v>302362</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4476,13 @@
         <v>111353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4515,13 +4491,13 @@
         <v>72486</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>170</v>
@@ -4530,13 +4506,13 @@
         <v>183839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4527,13 @@
         <v>197657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>148</v>
@@ -4566,13 +4542,13 @@
         <v>152771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>324</v>
@@ -4581,13 +4557,13 @@
         <v>350429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4631,13 @@
         <v>122412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -4670,13 +4646,13 @@
         <v>126279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>240</v>
@@ -4685,13 +4661,13 @@
         <v>248691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4682,13 @@
         <v>159376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -4721,13 +4697,13 @@
         <v>131105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>284</v>
@@ -4736,13 +4712,13 @@
         <v>290481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4786,13 @@
         <v>505119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>395</v>
@@ -4825,13 +4801,13 @@
         <v>409409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>865</v>
@@ -4840,13 +4816,13 @@
         <v>914528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4837,13 @@
         <v>671018</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>498</v>
@@ -4876,13 +4852,13 @@
         <v>512570</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>1122</v>
@@ -4891,13 +4867,13 @@
         <v>1183588</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4974,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FD7C81-06B3-41D0-A3AF-6A5AC17A213A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB00207-F9C3-4DAF-A39A-788401E7E5B7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4991,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5098,13 +5074,13 @@
         <v>9332</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5113,13 +5089,13 @@
         <v>8015</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5128,13 +5104,13 @@
         <v>17347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5125,13 @@
         <v>19728</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5164,13 +5140,13 @@
         <v>11100</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -5179,13 +5155,13 @@
         <v>30828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5229,13 @@
         <v>51790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -5268,13 +5244,13 @@
         <v>38881</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>109</v>
@@ -5283,13 +5259,13 @@
         <v>90672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5280,13 @@
         <v>101084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>97</v>
@@ -5319,13 +5295,13 @@
         <v>70903</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -5334,13 +5310,13 @@
         <v>171986</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5384,13 @@
         <v>74783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -5423,13 +5399,13 @@
         <v>86239</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -5438,13 +5414,13 @@
         <v>161021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5435,13 @@
         <v>166521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>147</v>
@@ -5474,13 +5450,13 @@
         <v>109985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>304</v>
@@ -5489,13 +5465,13 @@
         <v>276507</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5539,13 @@
         <v>70386</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5578,13 +5554,13 @@
         <v>68256</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -5593,13 +5569,13 @@
         <v>138642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5590,13 @@
         <v>125784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>122</v>
@@ -5629,13 +5605,13 @@
         <v>99027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>213</v>
@@ -5644,13 +5620,13 @@
         <v>224811</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5694,13 @@
         <v>87462</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>141</v>
@@ -5733,13 +5709,13 @@
         <v>101849</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -5748,13 +5724,13 @@
         <v>189311</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5745,13 @@
         <v>142056</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -5784,13 +5760,13 @@
         <v>106618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>275</v>
@@ -5799,13 +5775,13 @@
         <v>248674</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5849,13 @@
         <v>293753</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>419</v>
@@ -5888,13 +5864,13 @@
         <v>303240</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>714</v>
@@ -5903,13 +5879,13 @@
         <v>596994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5900,13 @@
         <v>555173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>525</v>
@@ -5939,13 +5915,13 @@
         <v>397632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>1037</v>
@@ -5954,13 +5930,13 @@
         <v>952805</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,7 +5992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2F56D3E-8956-41AF-A5F6-79EA7673E7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{146A86F9-B17F-429E-8684-08445F57F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D7072A2-21F2-49F2-A8FF-C566D05084B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27737508-EABA-49FD-B938-943632DD4D29}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,1279 +77,1297 @@
     <t>26,89%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>8,3%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>44,97%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
   </si>
   <si>
     <t>55,03%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>44,17%</t>
   </si>
   <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
   </si>
   <si>
     <t>55,83%</t>
   </si>
   <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
   </si>
   <si>
     <t>36,05%</t>
   </si>
   <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>63,95%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C26B837-5765-4755-AF20-52F3288E1856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F288503-90D1-4EE3-A612-FA8621ADAE9C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2508,10 +2526,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -2520,13 +2538,13 @@
         <v>108502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
@@ -2535,13 +2553,13 @@
         <v>229114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2574,13 @@
         <v>283679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -2571,13 +2589,13 @@
         <v>195892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>484</v>
@@ -2586,13 +2604,13 @@
         <v>479571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2678,13 @@
         <v>420548</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>289</v>
@@ -2675,13 +2693,13 @@
         <v>298010</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>696</v>
@@ -2690,13 +2708,13 @@
         <v>718558</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2729,13 @@
         <v>960280</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>548</v>
@@ -2726,13 +2744,13 @@
         <v>556464</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1486</v>
@@ -2741,13 +2759,13 @@
         <v>1516744</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,7 +2821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2124DC-981D-42BB-BA32-F672A58AC71F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC530F3F-A77A-4C18-8B34-F12ADCD485C2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,13 +2966,13 @@
         <v>26165</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2963,13 +2981,13 @@
         <v>12547</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -2978,13 +2996,13 @@
         <v>38712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3017,13 @@
         <v>25495</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3014,13 +3032,13 @@
         <v>7471</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -3029,13 +3047,13 @@
         <v>32966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3121,13 @@
         <v>103530</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -3118,13 +3136,13 @@
         <v>83541</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -3133,13 +3151,13 @@
         <v>187070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3172,13 @@
         <v>114392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -3169,13 +3187,13 @@
         <v>58282</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>166</v>
@@ -3184,13 +3202,13 @@
         <v>172675</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3276,13 @@
         <v>199759</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -3273,13 +3291,13 @@
         <v>149733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>315</v>
@@ -3288,13 +3306,13 @@
         <v>349493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3327,13 @@
         <v>205739</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
@@ -3324,13 +3342,13 @@
         <v>140614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>321</v>
@@ -3339,13 +3357,13 @@
         <v>346353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3431,13 @@
         <v>147978</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -3428,13 +3446,13 @@
         <v>115953</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -3443,13 +3461,13 @@
         <v>263932</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3482,13 @@
         <v>164495</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>105</v>
@@ -3479,13 +3497,13 @@
         <v>112664</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>256</v>
@@ -3494,13 +3512,13 @@
         <v>277159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3586,13 @@
         <v>149161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -3583,13 +3601,13 @@
         <v>134384</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>275</v>
@@ -3598,13 +3616,13 @@
         <v>283545</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3637,13 @@
         <v>215177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -3634,13 +3652,13 @@
         <v>154005</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
@@ -3649,13 +3667,13 @@
         <v>369182</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3741,13 @@
         <v>626595</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>455</v>
@@ -3738,13 +3756,13 @@
         <v>496158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1030</v>
@@ -3753,13 +3771,13 @@
         <v>1122752</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3792,13 @@
         <v>725297</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>438</v>
@@ -3789,13 +3807,13 @@
         <v>473036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>1130</v>
@@ -3804,13 +3822,13 @@
         <v>1198334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,7 +3884,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D4BE43-3C41-453B-949A-7693FF260CDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C9A4A3-F0B0-4484-BAA4-6382789203BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,13 +4029,13 @@
         <v>29255</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -4026,13 +4044,13 @@
         <v>17328</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4041,13 +4059,13 @@
         <v>46584</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4080,13 @@
         <v>20646</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4077,13 +4095,13 @@
         <v>14502</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -4092,13 +4110,13 @@
         <v>35147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4184,13 @@
         <v>82202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>50</v>
@@ -4181,13 +4199,13 @@
         <v>49858</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -4196,13 +4214,13 @@
         <v>132060</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4235,13 @@
         <v>118449</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -4232,13 +4250,13 @@
         <v>86721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -4247,13 +4265,13 @@
         <v>205170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4339,13 @@
         <v>159897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -4336,13 +4354,13 @@
         <v>143456</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>281</v>
@@ -4351,13 +4369,13 @@
         <v>303354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4390,13 @@
         <v>174891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -4387,13 +4405,13 @@
         <v>127472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>283</v>
@@ -4402,13 +4420,13 @@
         <v>302362</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4494,13 @@
         <v>111353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4491,13 +4509,13 @@
         <v>72486</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>170</v>
@@ -4506,13 +4524,13 @@
         <v>183839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4545,13 @@
         <v>197657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>148</v>
@@ -4542,13 +4560,13 @@
         <v>152771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>324</v>
@@ -4557,13 +4575,13 @@
         <v>350429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4649,13 @@
         <v>122412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -4646,13 +4664,13 @@
         <v>126279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>240</v>
@@ -4661,13 +4679,13 @@
         <v>248691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4700,13 @@
         <v>159376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -4697,13 +4715,13 @@
         <v>131105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>284</v>
@@ -4712,13 +4730,13 @@
         <v>290481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4804,13 @@
         <v>505119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7">
         <v>395</v>
@@ -4801,13 +4819,13 @@
         <v>409409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>865</v>
@@ -4816,13 +4834,13 @@
         <v>914528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4855,13 @@
         <v>671018</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>498</v>
@@ -4852,13 +4870,13 @@
         <v>512570</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>1122</v>
@@ -4867,13 +4885,13 @@
         <v>1183588</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +4947,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB00207-F9C3-4DAF-A39A-788401E7E5B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B991DE0-3F85-46A9-B88E-C0759278F500}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5092,13 @@
         <v>9332</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5089,13 +5107,13 @@
         <v>8015</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5104,13 +5122,13 @@
         <v>17347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5143,13 @@
         <v>19728</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5140,13 +5158,13 @@
         <v>11100</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -5155,13 +5173,13 @@
         <v>30828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5247,13 @@
         <v>51790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -5244,13 +5262,13 @@
         <v>38881</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>109</v>
@@ -5259,13 +5277,13 @@
         <v>90672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5298,13 @@
         <v>101084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>97</v>
@@ -5295,13 +5313,13 @@
         <v>70903</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -5310,13 +5328,13 @@
         <v>171986</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5402,13 @@
         <v>74783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -5399,13 +5417,13 @@
         <v>86239</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -5414,13 +5432,13 @@
         <v>161021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5453,13 @@
         <v>166521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>147</v>
@@ -5450,13 +5468,13 @@
         <v>109985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>304</v>
@@ -5465,13 +5483,13 @@
         <v>276507</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5557,13 @@
         <v>70386</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5554,13 +5572,13 @@
         <v>68256</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -5569,13 +5587,13 @@
         <v>138642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5608,13 @@
         <v>125784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>122</v>
@@ -5605,13 +5623,13 @@
         <v>99027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>213</v>
@@ -5620,13 +5638,13 @@
         <v>224811</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5712,13 @@
         <v>87462</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>141</v>
@@ -5709,13 +5727,13 @@
         <v>101849</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -5724,13 +5742,13 @@
         <v>189311</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5763,13 @@
         <v>142056</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -5760,13 +5778,13 @@
         <v>106618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>275</v>
@@ -5775,13 +5793,13 @@
         <v>248674</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5867,13 @@
         <v>293753</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>419</v>
@@ -5864,13 +5882,13 @@
         <v>303240</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>714</v>
@@ -5879,13 +5897,13 @@
         <v>596994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5918,13 @@
         <v>555173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>525</v>
@@ -5915,13 +5933,13 @@
         <v>397632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>1037</v>
@@ -5930,13 +5948,13 @@
         <v>952805</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,7 +6010,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{146A86F9-B17F-429E-8684-08445F57F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E43167-DE8E-4883-8127-580DBB2883BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27737508-EABA-49FD-B938-943632DD4D29}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BFF7C4D6-0C79-43F2-B009-0E2269BFF8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
   </si>
   <si>
     <t>25,74%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,11%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>76,83%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>74,26%</t>
   </si>
   <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>24,19%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,55 +197,55 @@
     <t>31,21%</t>
   </si>
   <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>42,16%</t>
   </si>
   <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>35,12%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
   </si>
   <si>
     <t>68,79%</t>
   </si>
   <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>57,84%</t>
   </si>
   <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
   </si>
   <si>
     <t>64,88%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,55 +254,55 @@
     <t>37,58%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
   </si>
   <si>
     <t>39,1%</t>
   </si>
   <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
   </si>
   <si>
     <t>38,19%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>62,42%</t>
   </si>
   <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
   <si>
     <t>61,81%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,79 +311,79 @@
     <t>29,83%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>35,65%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>70,17%</t>
   </si>
   <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>64,35%</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>30,2%</t>
+    <t>30,15%</t>
   </si>
   <si>
     <t>34,1%</t>
@@ -392,19 +392,19 @@
     <t>69,54%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
   </si>
   <si>
     <t>67,85%</t>
@@ -413,7 +413,7 @@
     <t>65,9%</t>
   </si>
   <si>
-    <t>69,8%</t>
+    <t>69,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -425,876 +425,888 @@
     <t>50,65%</t>
   </si>
   <si>
-    <t>36,94%</t>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>64,89%</t>
   </si>
   <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>45,54%</t>
   </si>
   <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
   </si>
   <si>
     <t>54,46%</t>
   </si>
   <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
     <t>68,55%</t>
   </si>
   <si>
@@ -1308,12 +1320,6 @@
   </si>
   <si>
     <t>56,78%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
   </si>
   <si>
     <t>34,6%</t>
@@ -1779,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F288503-90D1-4EE3-A612-FA8621ADAE9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B73EC86-3CB4-439E-876C-EA12F2D771F0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2842,7 +2848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC530F3F-A77A-4C18-8B34-F12ADCD485C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3E747D-581E-4ED9-8EEF-B4CEB85D5DCC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3297,7 +3303,7 @@
         <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>315</v>
@@ -3306,13 +3312,13 @@
         <v>349493</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3333,13 @@
         <v>205739</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
@@ -3342,13 +3348,13 @@
         <v>140614</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>321</v>
@@ -3357,13 +3363,13 @@
         <v>346353</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3437,13 @@
         <v>147978</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -3446,13 +3452,13 @@
         <v>115953</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -3461,13 +3467,13 @@
         <v>263932</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3488,13 @@
         <v>164495</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>105</v>
@@ -3497,13 +3503,13 @@
         <v>112664</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>256</v>
@@ -3512,13 +3518,13 @@
         <v>277159</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3592,13 @@
         <v>149161</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -3601,13 +3607,13 @@
         <v>134384</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>275</v>
@@ -3616,13 +3622,13 @@
         <v>283545</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3643,13 @@
         <v>215177</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -3652,13 +3658,13 @@
         <v>154005</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
@@ -3667,10 +3673,10 @@
         <v>369182</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>214</v>
@@ -3905,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C9A4A3-F0B0-4484-BAA4-6382789203BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04510DF-D655-4193-877B-F78F30330956}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4649,7 +4655,7 @@
         <v>122412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>306</v>
@@ -4700,7 +4706,7 @@
         <v>159376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>314</v>
@@ -4810,7 +4816,7 @@
         <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>395</v>
@@ -4819,13 +4825,13 @@
         <v>409409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>865</v>
@@ -4834,13 +4840,13 @@
         <v>914528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4861,13 @@
         <v>671018</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>498</v>
@@ -4870,13 +4876,13 @@
         <v>512570</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>1122</v>
@@ -4885,13 +4891,13 @@
         <v>1183588</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,7 +4974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B991DE0-3F85-46A9-B88E-C0759278F500}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52B180B-FCA2-4C2E-8605-BE69FF8EB07E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +4991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,13 +5098,13 @@
         <v>9332</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5107,13 +5113,13 @@
         <v>8015</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5122,13 +5128,13 @@
         <v>17347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5149,13 @@
         <v>19728</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5158,13 +5164,13 @@
         <v>11100</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -5173,13 +5179,13 @@
         <v>30828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5253,13 @@
         <v>51790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -5262,13 +5268,13 @@
         <v>38881</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>109</v>
@@ -5277,13 +5283,13 @@
         <v>90672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5304,13 @@
         <v>101084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>97</v>
@@ -5313,13 +5319,13 @@
         <v>70903</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -5328,13 +5334,13 @@
         <v>171986</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5408,13 @@
         <v>74783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -5417,13 +5423,13 @@
         <v>86239</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -5432,13 +5438,13 @@
         <v>161021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5459,13 @@
         <v>166521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>147</v>
@@ -5468,13 +5474,13 @@
         <v>109985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>304</v>
@@ -5483,13 +5489,13 @@
         <v>276507</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5563,13 @@
         <v>70386</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5572,13 +5578,13 @@
         <v>68256</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -5587,13 +5593,13 @@
         <v>138642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5614,13 @@
         <v>125784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>122</v>
@@ -5623,13 +5629,13 @@
         <v>99027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>213</v>
@@ -5638,13 +5644,13 @@
         <v>224811</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5718,13 @@
         <v>87462</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>141</v>
@@ -5727,13 +5733,13 @@
         <v>101849</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -5742,13 +5748,13 @@
         <v>189311</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5769,13 @@
         <v>142056</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -5778,13 +5784,13 @@
         <v>106618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>275</v>
@@ -5793,13 +5799,13 @@
         <v>248674</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5873,13 @@
         <v>293753</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>419</v>
@@ -5882,13 +5888,13 @@
         <v>303240</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>714</v>
@@ -5897,13 +5903,13 @@
         <v>596994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5924,13 @@
         <v>555173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>525</v>
@@ -5933,13 +5939,13 @@
         <v>397632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>1037</v>
@@ -5948,13 +5954,13 @@
         <v>952805</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E43167-DE8E-4883-8127-580DBB2883BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBB51656-0B38-4322-AF9F-15A7C1EDF104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BFF7C4D6-0C79-43F2-B009-0E2269BFF8BB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CA48D248-23E3-4B01-B36F-127FC5EA8AAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>68,38%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>37,58%</t>
@@ -422,150 +365,102 @@
     <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
   </si>
   <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
   </si>
   <si>
     <t>57,58%</t>
   </si>
   <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>42,42%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
     <t>54,67%</t>
   </si>
   <si>
@@ -743,112 +638,52 @@
     <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
   </si>
   <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
   </si>
   <si>
     <t>47,76%</t>
@@ -872,9 +707,6 @@
     <t>50,08%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
     <t>54,2%</t>
   </si>
   <si>
@@ -902,9 +734,6 @@
     <t>45,8%</t>
   </si>
   <si>
-    <t>53,98%</t>
-  </si>
-  <si>
     <t>36,04%</t>
   </si>
   <si>
@@ -1064,316 +893,268 @@
     <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
   </si>
   <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>40,8%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>59,2%</t>
   </si>
   <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
 </sst>
 </file>
@@ -1785,8 +1566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B73EC86-3CB4-439E-876C-EA12F2D771F0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09197F9-8F1B-4B3C-AE9C-EEB52DB4BCF6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1903,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>12521</v>
+        <v>77997</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1918,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>4796</v>
+        <v>28517</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1933,10 +1714,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="N4" s="7">
-        <v>17318</v>
+        <v>106514</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1954,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="D5" s="7">
-        <v>34050</v>
+        <v>239254</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1969,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I5" s="7">
-        <v>15902</v>
+        <v>127457</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1984,10 +1765,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>49</v>
+        <v>358</v>
       </c>
       <c r="N5" s="7">
-        <v>49951</v>
+        <v>366711</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2005,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>43</v>
+        <v>308</v>
       </c>
       <c r="D6" s="7">
-        <v>46571</v>
+        <v>317251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2020,10 +1801,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I6" s="7">
-        <v>20698</v>
+        <v>155974</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2035,10 +1816,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>465</v>
       </c>
       <c r="N6" s="7">
-        <v>67269</v>
+        <v>473225</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2058,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>65475</v>
+        <v>126486</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2073,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I7" s="7">
-        <v>23721</v>
+        <v>94884</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2088,10 +1869,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="N7" s="7">
-        <v>89196</v>
+        <v>221370</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2109,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="D8" s="7">
-        <v>205205</v>
+        <v>278825</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2124,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="I8" s="7">
-        <v>111555</v>
+        <v>130157</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2139,10 +1920,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="N8" s="7">
-        <v>316760</v>
+        <v>408982</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2160,10 +1941,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>265</v>
+        <v>377</v>
       </c>
       <c r="D9" s="7">
-        <v>270680</v>
+        <v>405311</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2175,10 +1956,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="I9" s="7">
-        <v>135276</v>
+        <v>225041</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2190,10 +1971,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>399</v>
+        <v>590</v>
       </c>
       <c r="N9" s="7">
-        <v>405956</v>
+        <v>630352</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2213,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7">
-        <v>126486</v>
+        <v>95453</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2228,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>94884</v>
+        <v>66107</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2243,10 +2024,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="N10" s="7">
-        <v>221370</v>
+        <v>161560</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2264,10 +2045,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7">
-        <v>278825</v>
+        <v>158522</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2279,10 +2060,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I11" s="7">
-        <v>130157</v>
+        <v>102958</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2294,10 +2075,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>385</v>
+        <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>408982</v>
+        <v>261480</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2315,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>377</v>
+        <v>238</v>
       </c>
       <c r="D12" s="7">
-        <v>405311</v>
+        <v>253975</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2330,10 +2111,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="I12" s="7">
-        <v>225041</v>
+        <v>169065</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2345,10 +2126,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>590</v>
+        <v>413</v>
       </c>
       <c r="N12" s="7">
-        <v>630352</v>
+        <v>423040</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2368,10 +2149,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D13" s="7">
-        <v>95453</v>
+        <v>120612</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2383,10 +2164,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="I13" s="7">
-        <v>66107</v>
+        <v>108502</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2398,10 +2179,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="N13" s="7">
-        <v>161560</v>
+        <v>229114</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2419,10 +2200,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="D14" s="7">
-        <v>158522</v>
+        <v>283679</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2434,10 +2215,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="I14" s="7">
-        <v>102958</v>
+        <v>195892</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2449,10 +2230,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>259</v>
+        <v>484</v>
       </c>
       <c r="N14" s="7">
-        <v>261480</v>
+        <v>479571</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2470,10 +2251,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>422</v>
       </c>
       <c r="D15" s="7">
-        <v>253975</v>
+        <v>404291</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2485,10 +2266,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="I15" s="7">
-        <v>169065</v>
+        <v>304394</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2500,10 +2281,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>413</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>423040</v>
+        <v>708685</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2517,55 +2298,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>127</v>
+        <v>407</v>
       </c>
       <c r="D16" s="7">
-        <v>120612</v>
+        <v>420548</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>289</v>
+      </c>
+      <c r="I16" s="7">
+        <v>298010</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>103</v>
-      </c>
-      <c r="I16" s="7">
-        <v>108502</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>696</v>
+      </c>
+      <c r="N16" s="7">
+        <v>718558</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>230</v>
-      </c>
-      <c r="N16" s="7">
-        <v>229114</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,49 +2355,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>295</v>
+        <v>938</v>
       </c>
       <c r="D17" s="7">
-        <v>283679</v>
+        <v>960280</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>548</v>
+      </c>
+      <c r="I17" s="7">
+        <v>556464</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>189</v>
-      </c>
-      <c r="I17" s="7">
-        <v>195892</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1486</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1516744</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>484</v>
-      </c>
-      <c r="N17" s="7">
-        <v>479571</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>422</v>
+        <v>1345</v>
       </c>
       <c r="D18" s="7">
-        <v>404291</v>
+        <v>1380828</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2640,10 +2421,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>292</v>
+        <v>837</v>
       </c>
       <c r="I18" s="7">
-        <v>304394</v>
+        <v>854474</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2655,10 +2436,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>714</v>
+        <v>2182</v>
       </c>
       <c r="N18" s="7">
-        <v>708685</v>
+        <v>2235302</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2671,171 +2452,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>407</v>
-      </c>
-      <c r="D19" s="7">
-        <v>420548</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>289</v>
-      </c>
-      <c r="I19" s="7">
-        <v>298010</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>696</v>
-      </c>
-      <c r="N19" s="7">
-        <v>718558</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>938</v>
-      </c>
-      <c r="D20" s="7">
-        <v>960280</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>548</v>
-      </c>
-      <c r="I20" s="7">
-        <v>556464</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1486</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1516744</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1345</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1380828</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>837</v>
-      </c>
-      <c r="I21" s="7">
-        <v>854474</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2182</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2235302</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2848,8 +2473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3E747D-581E-4ED9-8EEF-B4CEB85D5DCC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F414F1C2-FAB0-4A0C-91F9-C7A2FEE5429D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2865,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2966,49 +2591,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="D4" s="7">
-        <v>26165</v>
+        <v>129695</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="I4" s="7">
-        <v>12547</v>
+        <v>96087</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="N4" s="7">
-        <v>38712</v>
+        <v>225782</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,49 +2642,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="D5" s="7">
-        <v>25495</v>
+        <v>139888</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="I5" s="7">
-        <v>7471</v>
+        <v>65753</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="N5" s="7">
-        <v>32966</v>
+        <v>205641</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="D6" s="7">
-        <v>51660</v>
+        <v>269583</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3083,10 +2708,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="I6" s="7">
-        <v>20018</v>
+        <v>161840</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3098,10 +2723,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>69</v>
+        <v>408</v>
       </c>
       <c r="N6" s="7">
-        <v>71678</v>
+        <v>431423</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3121,49 +2746,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="D7" s="7">
-        <v>103530</v>
+        <v>199759</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="I7" s="7">
-        <v>83541</v>
+        <v>149733</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>173</v>
+        <v>315</v>
       </c>
       <c r="N7" s="7">
-        <v>187070</v>
+        <v>349493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,49 +2797,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="D8" s="7">
-        <v>114392</v>
+        <v>205739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="I8" s="7">
-        <v>58282</v>
+        <v>140614</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>166</v>
+        <v>321</v>
       </c>
       <c r="N8" s="7">
-        <v>172675</v>
+        <v>346353</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,10 +2848,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>208</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>217922</v>
+        <v>405498</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3238,10 +2863,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="I9" s="7">
-        <v>141823</v>
+        <v>290347</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3253,10 +2878,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>339</v>
+        <v>636</v>
       </c>
       <c r="N9" s="7">
-        <v>359745</v>
+        <v>695846</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3276,49 +2901,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D10" s="7">
-        <v>199759</v>
+        <v>147978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="I10" s="7">
-        <v>149733</v>
+        <v>115953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="N10" s="7">
-        <v>349493</v>
+        <v>263932</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,49 +2952,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D11" s="7">
-        <v>205739</v>
+        <v>164495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I11" s="7">
-        <v>140614</v>
+        <v>112664</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="7">
+        <v>256</v>
+      </c>
+      <c r="N11" s="7">
+        <v>277159</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M11" s="7">
-        <v>321</v>
-      </c>
-      <c r="N11" s="7">
-        <v>346353</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="D12" s="7">
-        <v>405498</v>
+        <v>312473</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3393,10 +3018,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="I12" s="7">
-        <v>290347</v>
+        <v>228617</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3408,10 +3033,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>636</v>
+        <v>488</v>
       </c>
       <c r="N12" s="7">
-        <v>695846</v>
+        <v>541091</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3431,49 +3056,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D13" s="7">
-        <v>147978</v>
+        <v>149161</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="I13" s="7">
-        <v>115953</v>
+        <v>134384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="N13" s="7">
-        <v>263932</v>
+        <v>283545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,49 +3107,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7">
-        <v>164495</v>
+        <v>215176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="I14" s="7">
-        <v>112664</v>
+        <v>154005</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>256</v>
+        <v>353</v>
       </c>
       <c r="N14" s="7">
-        <v>277159</v>
+        <v>369182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="D15" s="7">
-        <v>312473</v>
+        <v>364337</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3548,10 +3173,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="I15" s="7">
-        <v>228617</v>
+        <v>288389</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3563,10 +3188,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>488</v>
+        <v>628</v>
       </c>
       <c r="N15" s="7">
-        <v>541091</v>
+        <v>652727</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3580,55 +3205,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>146</v>
+        <v>575</v>
       </c>
       <c r="D16" s="7">
-        <v>149161</v>
+        <v>626595</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>129</v>
+        <v>455</v>
       </c>
       <c r="I16" s="7">
-        <v>134384</v>
+        <v>496158</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>275</v>
+        <v>1030</v>
       </c>
       <c r="N16" s="7">
-        <v>283545</v>
+        <v>1122752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,49 +3262,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>207</v>
+        <v>692</v>
       </c>
       <c r="D17" s="7">
-        <v>215177</v>
+        <v>725297</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>146</v>
+        <v>438</v>
       </c>
       <c r="I17" s="7">
-        <v>154005</v>
+        <v>473036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>353</v>
+        <v>1130</v>
       </c>
       <c r="N17" s="7">
-        <v>369182</v>
+        <v>1198334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,10 +3313,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>353</v>
+        <v>1267</v>
       </c>
       <c r="D18" s="7">
-        <v>364338</v>
+        <v>1351892</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3703,10 +3328,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>893</v>
       </c>
       <c r="I18" s="7">
-        <v>288389</v>
+        <v>969194</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3718,10 +3343,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>628</v>
+        <v>2160</v>
       </c>
       <c r="N18" s="7">
-        <v>652727</v>
+        <v>2321086</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3734,171 +3359,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>575</v>
-      </c>
-      <c r="D19" s="7">
-        <v>626595</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>455</v>
-      </c>
-      <c r="I19" s="7">
-        <v>496158</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1030</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1122752</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>692</v>
-      </c>
-      <c r="D20" s="7">
-        <v>725297</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>438</v>
-      </c>
-      <c r="I20" s="7">
-        <v>473036</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1130</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1198334</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1267</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1351892</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>893</v>
-      </c>
-      <c r="I21" s="7">
-        <v>969194</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2160</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2321086</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3911,8 +3380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04510DF-D655-4193-877B-F78F30330956}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8A7B5E-ECEB-4778-B512-22995A825614}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3928,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4029,49 +3498,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>29255</v>
+        <v>111458</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>17328</v>
+        <v>67186</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="N4" s="7">
-        <v>46584</v>
+        <v>178644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,49 +3549,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="D5" s="7">
-        <v>20646</v>
+        <v>139094</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I5" s="7">
-        <v>14502</v>
+        <v>101223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="N5" s="7">
-        <v>35147</v>
+        <v>240317</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="D6" s="7">
-        <v>49901</v>
+        <v>250552</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4146,10 +3615,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="I6" s="7">
-        <v>31830</v>
+        <v>168409</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4161,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="N6" s="7">
-        <v>81731</v>
+        <v>418961</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4184,49 +3653,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D7" s="7">
-        <v>82202</v>
+        <v>159897</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="I7" s="7">
-        <v>49858</v>
+        <v>143456</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="N7" s="7">
-        <v>132060</v>
+        <v>303354</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,49 +3704,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7">
-        <v>118449</v>
+        <v>174891</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="I8" s="7">
-        <v>86721</v>
+        <v>127472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="N8" s="7">
-        <v>205170</v>
+        <v>302362</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>303</v>
       </c>
       <c r="D9" s="7">
-        <v>200651</v>
+        <v>334788</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4301,10 +3770,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="I9" s="7">
-        <v>136579</v>
+        <v>270928</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4316,10 +3785,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>564</v>
       </c>
       <c r="N9" s="7">
-        <v>337230</v>
+        <v>605716</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4339,49 +3808,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>159897</v>
+        <v>111353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>143456</v>
+        <v>72486</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="N10" s="7">
-        <v>303354</v>
+        <v>183839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,49 +3859,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D11" s="7">
-        <v>174891</v>
+        <v>197657</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="I11" s="7">
-        <v>127472</v>
+        <v>152771</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="N11" s="7">
-        <v>302362</v>
+        <v>350428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D12" s="7">
-        <v>334788</v>
+        <v>309010</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4456,10 +3925,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="I12" s="7">
-        <v>270928</v>
+        <v>225257</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4471,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="N12" s="7">
-        <v>605716</v>
+        <v>534267</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4494,49 +3963,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
-        <v>111353</v>
+        <v>122412</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="H13" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="I13" s="7">
-        <v>72486</v>
+        <v>126279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="N13" s="7">
-        <v>183839</v>
+        <v>248691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,49 +4014,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D14" s="7">
-        <v>197657</v>
+        <v>159376</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="I14" s="7">
-        <v>152771</v>
+        <v>131105</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="N14" s="7">
-        <v>350429</v>
+        <v>290481</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,10 +4065,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D15" s="7">
-        <v>309010</v>
+        <v>281788</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4611,10 +4080,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="I15" s="7">
-        <v>225257</v>
+        <v>257384</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4626,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="N15" s="7">
-        <v>534268</v>
+        <v>539172</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4643,55 +4112,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>470</v>
       </c>
       <c r="D16" s="7">
-        <v>122412</v>
+        <v>505119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>119</v>
+        <v>395</v>
       </c>
       <c r="I16" s="7">
-        <v>126279</v>
+        <v>409409</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>240</v>
+        <v>865</v>
       </c>
       <c r="N16" s="7">
-        <v>248691</v>
+        <v>914528</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,49 +4169,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>157</v>
+        <v>624</v>
       </c>
       <c r="D17" s="7">
-        <v>159376</v>
+        <v>671018</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>127</v>
+        <v>498</v>
       </c>
       <c r="I17" s="7">
-        <v>131105</v>
+        <v>512570</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>284</v>
+        <v>1122</v>
       </c>
       <c r="N17" s="7">
-        <v>290481</v>
+        <v>1183588</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,10 +4220,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>278</v>
+        <v>1094</v>
       </c>
       <c r="D18" s="7">
-        <v>281788</v>
+        <v>1176137</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4766,10 +4235,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>246</v>
+        <v>893</v>
       </c>
       <c r="I18" s="7">
-        <v>257384</v>
+        <v>921979</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4781,10 +4250,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>524</v>
+        <v>1987</v>
       </c>
       <c r="N18" s="7">
-        <v>539172</v>
+        <v>2098116</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4797,171 +4266,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>470</v>
-      </c>
-      <c r="D19" s="7">
-        <v>505119</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="7">
-        <v>395</v>
-      </c>
-      <c r="I19" s="7">
-        <v>409409</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M19" s="7">
-        <v>865</v>
-      </c>
-      <c r="N19" s="7">
-        <v>914528</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>624</v>
-      </c>
-      <c r="D20" s="7">
-        <v>671018</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="7">
-        <v>498</v>
-      </c>
-      <c r="I20" s="7">
-        <v>512570</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1122</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1183588</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1094</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1176137</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>893</v>
-      </c>
-      <c r="I21" s="7">
-        <v>921979</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1987</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2098116</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4974,8 +4287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52B180B-FCA2-4C2E-8605-BE69FF8EB07E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C99E3C-A9B0-4003-972F-B6BB083476E2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4991,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,49 +4405,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7">
-        <v>9332</v>
+        <v>59259</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I4" s="7">
-        <v>8015</v>
+        <v>44980</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="N4" s="7">
-        <v>17347</v>
+        <v>104239</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,49 +4456,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7">
-        <v>19728</v>
+        <v>118758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>11100</v>
+        <v>77543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="N5" s="7">
-        <v>30828</v>
+        <v>196301</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,10 +4507,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
-        <v>29060</v>
+        <v>178017</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5209,10 +4522,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="I6" s="7">
-        <v>19115</v>
+        <v>122523</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5224,10 +4537,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>377</v>
       </c>
       <c r="N6" s="7">
-        <v>48175</v>
+        <v>300540</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5247,49 +4560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7">
-        <v>51790</v>
+        <v>78837</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I7" s="7">
-        <v>38881</v>
+        <v>78976</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="N7" s="7">
-        <v>90672</v>
+        <v>157813</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,49 +4611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="D8" s="7">
-        <v>101084</v>
+        <v>158317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="I8" s="7">
-        <v>70903</v>
+        <v>100208</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="N8" s="7">
-        <v>171986</v>
+        <v>258525</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,10 +4662,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="D9" s="7">
-        <v>152874</v>
+        <v>237154</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5364,10 +4677,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="I9" s="7">
-        <v>109784</v>
+        <v>179184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5379,10 +4692,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="N9" s="7">
-        <v>262658</v>
+        <v>416338</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5402,49 +4715,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>74783</v>
+        <v>68875</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7">
-        <v>86239</v>
+        <v>63180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="N10" s="7">
-        <v>161021</v>
+        <v>132056</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>166521</v>
+        <v>125269</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="I11" s="7">
-        <v>109985</v>
+        <v>90413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="N11" s="7">
-        <v>276507</v>
+        <v>215681</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="D12" s="7">
-        <v>241304</v>
+        <v>194144</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5519,10 +4832,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="I12" s="7">
-        <v>196224</v>
+        <v>153593</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5534,10 +4847,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>483</v>
+        <v>377</v>
       </c>
       <c r="N12" s="7">
-        <v>437528</v>
+        <v>347737</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5557,49 +4870,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>70386</v>
+        <v>84323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="I13" s="7">
-        <v>68256</v>
+        <v>94572</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="N13" s="7">
-        <v>138642</v>
+        <v>178895</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,49 +4921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="D14" s="7">
-        <v>125784</v>
+        <v>133170</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I14" s="7">
-        <v>99027</v>
+        <v>96532</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="N14" s="7">
-        <v>224811</v>
+        <v>229702</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,10 +4972,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="D15" s="7">
-        <v>196170</v>
+        <v>217493</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5674,10 +4987,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>167283</v>
+        <v>191104</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5689,10 +5002,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>377</v>
+        <v>514</v>
       </c>
       <c r="N15" s="7">
-        <v>363453</v>
+        <v>408597</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5706,55 +5019,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="D16" s="7">
-        <v>87462</v>
+        <v>291294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
-        <v>141</v>
+        <v>419</v>
       </c>
       <c r="I16" s="7">
-        <v>101849</v>
+        <v>281709</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
-        <v>239</v>
+        <v>714</v>
       </c>
       <c r="N16" s="7">
-        <v>189311</v>
+        <v>573003</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,49 +5076,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>135</v>
+        <v>512</v>
       </c>
       <c r="D17" s="7">
-        <v>142056</v>
+        <v>535514</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
-        <v>140</v>
+        <v>525</v>
       </c>
       <c r="I17" s="7">
-        <v>106618</v>
+        <v>364696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
-        <v>275</v>
+        <v>1037</v>
       </c>
       <c r="N17" s="7">
-        <v>248674</v>
+        <v>900209</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>233</v>
+        <v>807</v>
       </c>
       <c r="D18" s="7">
-        <v>229518</v>
+        <v>826808</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5829,10 +5142,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>944</v>
       </c>
       <c r="I18" s="7">
-        <v>208467</v>
+        <v>646405</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5844,10 +5157,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>514</v>
+        <v>1751</v>
       </c>
       <c r="N18" s="7">
-        <v>437985</v>
+        <v>1473212</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5860,171 +5173,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>295</v>
-      </c>
-      <c r="D19" s="7">
-        <v>293753</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H19" s="7">
-        <v>419</v>
-      </c>
-      <c r="I19" s="7">
-        <v>303240</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="M19" s="7">
-        <v>714</v>
-      </c>
-      <c r="N19" s="7">
-        <v>596994</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>512</v>
-      </c>
-      <c r="D20" s="7">
-        <v>555173</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H20" s="7">
-        <v>525</v>
-      </c>
-      <c r="I20" s="7">
-        <v>397632</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1037</v>
-      </c>
-      <c r="N20" s="7">
-        <v>952805</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>807</v>
-      </c>
-      <c r="D21" s="7">
-        <v>848926</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>944</v>
-      </c>
-      <c r="I21" s="7">
-        <v>700872</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1751</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1549799</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
